--- a/phoenix_interface_1/src/test/resources/rest_info.xlsx
+++ b/phoenix_interface_1/src/test/resources/rest_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="D1:G17"/>
+  <oleSize ref="A1:D12"/>
 </workbook>
 </file>
 
@@ -145,13 +145,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":"123456","regname":"柠檬班"}</t>
+    <t>{"mobilephone":"13517315325","pwd":"123456","regname":"柠檬班"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315121'","expectedQueryRereslt":"1"}]</t>
+    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325'","expectedQueryRereslt":"1"}]</t>
   </si>
   <si>
     <t>2</t>
@@ -163,7 +163,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":"","regname":"柠檬班"}</t>
+    <t>{"mobilephone":"13517315325","pwd":"","regname":"柠檬班"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
@@ -190,7 +190,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":"123","regname":"柠檬班"}</t>
+    <t>{"mobilephone":"13517315325","pwd":"123","regname":"柠檬班"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
@@ -199,19 +199,19 @@
     <t>7</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":"123456"}</t>
+    <t>{"mobilephone":"13517315325","pwd":"123456"}</t>
   </si>
   <si>
     <t>{"status":"1","code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315121' and password=md5('123456')","expectedQueryRereslt":"1"}]</t>
+    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325' and password=md5('123456')","expectedQueryRereslt":"1"}]</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":""}</t>
+    <t>{"mobilephone":"13517315325","pwd":""}</t>
   </si>
   <si>
     <r>
@@ -290,7 +290,7 @@
     <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315122' and password=md5('123456')","expectedQueryRereslt":"0"}]</t>
   </si>
   <si>
-    <t>{"mobilephone":"13517315121","pwd":"1234567"}</t>
+    <t>{"mobilephone":"13517315325","pwd":"1234567"}</t>
   </si>
   <si>
     <r>
@@ -313,7 +313,7 @@
     </r>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select * from member where mobilephone='13517315121' and password=md5('1234567')":"expectedQueryRereslt":"0"}]</t>
+    <t>[{"no":"1","sql":"select * from member where mobilephone='13517315325' and password=md5('1234567')":"expectedQueryRereslt":"0"}]</t>
   </si>
   <si>
     <t>{"status":0,"code":"20102","data":null,"msg":"服务器异常"}</t>
@@ -362,7 +362,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,106 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,11 +490,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -512,187 +512,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,30 +722,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -766,11 +751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,17 +775,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,25 +818,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,131 +836,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,8 +1570,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1797,7 +1797,9 @@
       <c r="G12" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F12"/>
+  <autoFilter ref="A1:F12">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/phoenix_interface_1/src/test/resources/rest_info.xlsx
+++ b/phoenix_interface_1/src/test/resources/rest_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="16740" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:D12"/>
+  <oleSize ref="F1:I12"/>
 </workbook>
 </file>
 
@@ -151,7 +151,7 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325'","expectedQueryRereslt":"1"}]</t>
+    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325'","expectedQueryResult":"1"}]</t>
   </si>
   <si>
     <t>2</t>
@@ -205,7 +205,7 @@
     <t>{"status":"1","code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325' and password=md5('123456')","expectedQueryRereslt":"1"}]</t>
+    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315325' and password=md5('123456')","expectedQueryResult":"1"}]</t>
   </si>
   <si>
     <t>8</t>
@@ -287,7 +287,7 @@
     <t>{"status":"0","code":"20111",data:null,"msg":"用户名或者密码错误"}</t>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315122' and password=md5('123456')","expectedQueryRereslt":"0"}]</t>
+    <t>[{"no":"1","sql":"select count(*) from member where mobilephone='13517315122' and password=md5('123456')","expectedQueryResult":"0"}]</t>
   </si>
   <si>
     <t>{"mobilephone":"13517315325","pwd":"1234567"}</t>
@@ -313,7 +313,7 @@
     </r>
   </si>
   <si>
-    <t>[{"no":"1","sql":"select * from member where mobilephone='13517315325' and password=md5('1234567')":"expectedQueryRereslt":"0"}]</t>
+    <t>[{"no":"1","sql":"select * from member where mobilephone='13517315325' and password=md5('1234567')":"expectedQueryResult":"0"}]</t>
   </si>
   <si>
     <t>{"status":0,"code":"20102","data":null,"msg":"服务器异常"}</t>
@@ -362,6 +362,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -377,14 +391,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,67 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -466,36 +496,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -512,19 +512,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,55 +638,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,84 +686,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,18 +693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,16 +722,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,39 +747,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +777,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -818,16 +794,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,131 +836,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,8 +1570,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
